--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H2">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I2">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J2">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>101.3568517678947</v>
+        <v>25.11106551022777</v>
       </c>
       <c r="R2">
-        <v>912.211665911052</v>
+        <v>225.99958959205</v>
       </c>
       <c r="S2">
-        <v>0.1702766129955509</v>
+        <v>0.1821285799204968</v>
       </c>
       <c r="T2">
-        <v>0.2104284826283619</v>
+        <v>0.1970909075501071</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H3">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I3">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J3">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>0.1493017653403333</v>
+        <v>0.04474681264611111</v>
       </c>
       <c r="R3">
-        <v>1.343715888063</v>
+        <v>0.402721313815</v>
       </c>
       <c r="S3">
-        <v>0.0002508226969660205</v>
+        <v>0.0003245451070121007</v>
       </c>
       <c r="T3">
-        <v>0.0003099676379673595</v>
+        <v>0.0003512073157869218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H4">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I4">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J4">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>28.129764341716</v>
+        <v>9.503023890856667</v>
       </c>
       <c r="R4">
-        <v>253.167879075444</v>
+        <v>85.52721501771001</v>
       </c>
       <c r="S4">
-        <v>0.04725719981357622</v>
+        <v>0.06892468364145413</v>
       </c>
       <c r="T4">
-        <v>0.05840062634024778</v>
+        <v>0.07458702229725897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H5">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I5">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J5">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>2.240874480451001</v>
+        <v>0.4467090602991667</v>
       </c>
       <c r="R5">
-        <v>13.445246882706</v>
+        <v>2.680254361795</v>
       </c>
       <c r="S5">
-        <v>0.003764605056529835</v>
+        <v>0.003239945623046914</v>
       </c>
       <c r="T5">
-        <v>0.003101542115519725</v>
+        <v>0.002337410282845452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.514897</v>
+        <v>0.1543183333333333</v>
       </c>
       <c r="H6">
-        <v>1.544691</v>
+        <v>0.462955</v>
       </c>
       <c r="I6">
-        <v>0.2886981231148517</v>
+        <v>0.3481424830762243</v>
       </c>
       <c r="J6">
-        <v>0.3552234618564311</v>
+        <v>0.3755745713734061</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>39.97025319856368</v>
+        <v>12.89476694076167</v>
       </c>
       <c r="R6">
-        <v>359.732278787073</v>
+        <v>116.052902466855</v>
       </c>
       <c r="S6">
-        <v>0.06714888255222866</v>
+        <v>0.09352472878421435</v>
       </c>
       <c r="T6">
-        <v>0.08298284313433435</v>
+        <v>0.1012080239274077</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.375977</v>
       </c>
       <c r="I7">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J7">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>24.67020592282711</v>
+        <v>20.39330621191889</v>
       </c>
       <c r="R7">
-        <v>222.031853305444</v>
+        <v>183.53975590727</v>
       </c>
       <c r="S7">
-        <v>0.04144524058483428</v>
+        <v>0.1479110433903266</v>
       </c>
       <c r="T7">
-        <v>0.05121818513422012</v>
+        <v>0.1600623130713927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.375977</v>
       </c>
       <c r="I8">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J8">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>0.03633997338455555</v>
@@ -948,10 +948,10 @@
         <v>0.327059760461</v>
       </c>
       <c r="S8">
-        <v>6.105011626091785E-05</v>
+        <v>0.0002635709641306144</v>
       </c>
       <c r="T8">
-        <v>7.544596467517058E-05</v>
+        <v>0.0002852239914627113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.375977</v>
       </c>
       <c r="I9">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J9">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>6.846770265318668</v>
+        <v>7.717636516319334</v>
       </c>
       <c r="R9">
-        <v>61.620932387868</v>
+        <v>69.45872864687401</v>
       </c>
       <c r="S9">
-        <v>0.01150237828427106</v>
+        <v>0.0559754096650063</v>
       </c>
       <c r="T9">
-        <v>0.01421468260611821</v>
+        <v>0.0605739324173117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.375977</v>
       </c>
       <c r="I10">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J10">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>0.5454277033636667</v>
+        <v>0.3627832777788333</v>
       </c>
       <c r="R10">
-        <v>3.272566220182</v>
+        <v>2.176699666673</v>
       </c>
       <c r="S10">
-        <v>0.0009163029468928852</v>
+        <v>0.002631238534018014</v>
       </c>
       <c r="T10">
-        <v>0.0007549137659031868</v>
+        <v>0.001898267662976714</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.375977</v>
       </c>
       <c r="I11">
-        <v>0.07026897562965835</v>
+        <v>0.2827349663780488</v>
       </c>
       <c r="J11">
-        <v>0.08646120908220181</v>
+        <v>0.3050132315695027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>9.728739202103446</v>
+        <v>10.47215342762633</v>
       </c>
       <c r="R11">
-        <v>87.55865281893101</v>
+        <v>94.249380848637</v>
       </c>
       <c r="S11">
-        <v>0.0163440036973992</v>
+        <v>0.0759537038245673</v>
       </c>
       <c r="T11">
-        <v>0.02019798161128512</v>
+        <v>0.08219349442635884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H12">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I12">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J12">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>2.281543100090222</v>
+        <v>9.224575991463334</v>
       </c>
       <c r="R12">
-        <v>20.533887900812</v>
+        <v>83.02118392317001</v>
       </c>
       <c r="S12">
-        <v>0.003832927174734818</v>
+        <v>0.06690512296300752</v>
       </c>
       <c r="T12">
-        <v>0.004736745905472855</v>
+        <v>0.07240154955519232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H13">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I13">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J13">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.003360783278111111</v>
+        <v>0.01643778809233334</v>
       </c>
       <c r="R13">
-        <v>0.030247049503</v>
+        <v>0.147940092831</v>
       </c>
       <c r="S13">
-        <v>5.64601981639402E-06</v>
+        <v>0.000119221982080822</v>
       </c>
       <c r="T13">
-        <v>6.97737265237064E-06</v>
+        <v>0.0001290163721612996</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H14">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I14">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J14">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>0.6332010971293334</v>
+        <v>3.490945694606001</v>
       </c>
       <c r="R14">
-        <v>5.698809874164</v>
+        <v>31.418511251454</v>
       </c>
       <c r="S14">
-        <v>0.001063759738820164</v>
+        <v>0.02531955410968924</v>
       </c>
       <c r="T14">
-        <v>0.001314598310261894</v>
+        <v>0.02739962009488599</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H15">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I15">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J15">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>0.05044209266433333</v>
+        <v>0.1640990371805</v>
       </c>
       <c r="R15">
-        <v>0.302652555986</v>
+        <v>0.9845942230830002</v>
       </c>
       <c r="S15">
-        <v>8.474127344601534E-05</v>
+        <v>0.001190197389108487</v>
       </c>
       <c r="T15">
-        <v>6.981572424435459E-05</v>
+        <v>0.0008586500946586115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01159033333333333</v>
+        <v>0.05668900000000001</v>
       </c>
       <c r="H16">
-        <v>0.034771</v>
+        <v>0.170067</v>
       </c>
       <c r="I16">
-        <v>0.006498595796069574</v>
+        <v>0.1278905026823865</v>
       </c>
       <c r="J16">
-        <v>0.007996081411887533</v>
+        <v>0.1379677088048753</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>0.899730544145889</v>
+        <v>4.736906026103001</v>
       </c>
       <c r="R16">
-        <v>8.097574897313001</v>
+        <v>42.63215423492701</v>
       </c>
       <c r="S16">
-        <v>0.001511521589252182</v>
+        <v>0.03435640623850047</v>
       </c>
       <c r="T16">
-        <v>0.001867944099256058</v>
+        <v>0.03717887268797711</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H17">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I17">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J17">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>197.2494763800687</v>
+        <v>15.80491130376</v>
       </c>
       <c r="R17">
-        <v>1183.496858280412</v>
+        <v>94.82946782255999</v>
       </c>
       <c r="S17">
-        <v>0.3313734806015637</v>
+        <v>0.1146317765907141</v>
       </c>
       <c r="T17">
-        <v>0.2730084007801585</v>
+        <v>0.08269937971736691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H18">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I18">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J18">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>0.2905545557338333</v>
+        <v>0.028163655768</v>
       </c>
       <c r="R18">
-        <v>1.743327334403</v>
+        <v>0.168981934608</v>
       </c>
       <c r="S18">
-        <v>0.0004881233461560172</v>
+        <v>0.0002042687765800433</v>
       </c>
       <c r="T18">
-        <v>0.0004021497854191447</v>
+        <v>0.0001473666519111021</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H19">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I19">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J19">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>54.74303108589401</v>
+        <v>5.981205761711999</v>
       </c>
       <c r="R19">
-        <v>328.458186515364</v>
+        <v>35.887234570272</v>
       </c>
       <c r="S19">
-        <v>0.09196672702267979</v>
+        <v>0.04338121419615614</v>
       </c>
       <c r="T19">
-        <v>0.07576855282404488</v>
+        <v>0.03129672776701048</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H20">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I20">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J20">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>4.360941664946501</v>
+        <v>0.281158801236</v>
       </c>
       <c r="R20">
-        <v>17.443766659786</v>
+        <v>1.124635204944</v>
       </c>
       <c r="S20">
-        <v>0.00732625730995209</v>
+        <v>0.002039222635949287</v>
       </c>
       <c r="T20">
-        <v>0.004023918446467112</v>
+        <v>0.0009807777686911816</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0020355</v>
+        <v>0.09712799999999999</v>
       </c>
       <c r="H21">
-        <v>2.004071</v>
+        <v>0.194256</v>
       </c>
       <c r="I21">
-        <v>0.5618323046054881</v>
+        <v>0.2191209713442614</v>
       </c>
       <c r="J21">
-        <v>0.4608643660292445</v>
+        <v>0.1575911566711934</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>77.78567878420219</v>
+        <v>8.115969738456</v>
       </c>
       <c r="R21">
-        <v>466.7140727052131</v>
+        <v>48.695818430736</v>
       </c>
       <c r="S21">
-        <v>0.1306777163251363</v>
+        <v>0.05886448914486184</v>
       </c>
       <c r="T21">
-        <v>0.1076613441931549</v>
+        <v>0.04246690476621379</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H22">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I22">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J22">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N22">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O22">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P22">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q22">
-        <v>25.52439844179333</v>
+        <v>1.59484325517</v>
       </c>
       <c r="R22">
-        <v>229.71958597614</v>
+        <v>14.35358929653</v>
       </c>
       <c r="S22">
-        <v>0.04288025959379858</v>
+        <v>0.01156727248955594</v>
       </c>
       <c r="T22">
-        <v>0.05299158705528784</v>
+        <v>0.01251755344406216</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H23">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I23">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J23">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.869893</v>
       </c>
       <c r="O23">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P23">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q23">
-        <v>0.03759822528166667</v>
+        <v>0.002841940430999999</v>
       </c>
       <c r="R23">
-        <v>0.338384027535</v>
+        <v>0.025577463879</v>
       </c>
       <c r="S23">
-        <v>6.316394347238193E-05</v>
+        <v>2.061237006075493E-05</v>
       </c>
       <c r="T23">
-        <v>7.805824034134529E-05</v>
+        <v>2.230572886367544E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H24">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I24">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J24">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N24">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O24">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P24">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q24">
-        <v>7.083835977620001</v>
+        <v>0.6035519898539999</v>
       </c>
       <c r="R24">
-        <v>63.75452379858</v>
+        <v>5.431967908686</v>
       </c>
       <c r="S24">
-        <v>0.01190064190280262</v>
+        <v>0.004377515035175504</v>
       </c>
       <c r="T24">
-        <v>0.01470685829283959</v>
+        <v>0.004737139066661566</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H25">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I25">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J25">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N25">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O25">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P25">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q25">
-        <v>0.5643128421950001</v>
+        <v>0.0283711948245</v>
       </c>
       <c r="R25">
-        <v>3.38587705317</v>
+        <v>0.170227168947</v>
       </c>
       <c r="S25">
-        <v>0.0009480294401694728</v>
+        <v>0.0002057740410071139</v>
       </c>
       <c r="T25">
-        <v>0.000781052246194608</v>
+        <v>0.0001484526024052118</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.129665</v>
+        <v>0.009800999999999999</v>
       </c>
       <c r="H26">
-        <v>0.388995</v>
+        <v>0.029403</v>
       </c>
       <c r="I26">
-        <v>0.07270200085393243</v>
+        <v>0.02211107651907901</v>
       </c>
       <c r="J26">
-        <v>0.08945488162023499</v>
+        <v>0.02385333158102247</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N26">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O26">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P26">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q26">
-        <v>10.06559152799834</v>
+        <v>0.8189669241269999</v>
       </c>
       <c r="R26">
-        <v>90.59032375198501</v>
+        <v>7.370702317143</v>
       </c>
       <c r="S26">
-        <v>0.01690990597368935</v>
+        <v>0.005939902583279702</v>
       </c>
       <c r="T26">
-        <v>0.0208973257855716</v>
+        <v>0.006427880739029858</v>
       </c>
     </row>
   </sheetData>
